--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1170.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1170.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8447541500319385</v>
+        <v>1.166006922721863</v>
       </c>
       <c r="B1">
-        <v>1.22778782792209</v>
+        <v>2.435671091079712</v>
       </c>
       <c r="C1">
-        <v>2.451036651300418</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.368738651275635</v>
       </c>
       <c r="E1">
-        <v>1.846642390909811</v>
+        <v>1.235018253326416</v>
       </c>
     </row>
   </sheetData>
